--- a/data/trans_orig/P05A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>50876</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38377</v>
+        <v>37510</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65930</v>
+        <v>63809</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1863528655431649</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1405686550949373</v>
+        <v>0.1373945953524789</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2414924379326148</v>
+        <v>0.2337244292719792</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -765,19 +765,19 @@
         <v>43976</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33686</v>
+        <v>32454</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57904</v>
+        <v>57040</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.168594716002737</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1291468708238885</v>
+        <v>0.1244228813087643</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.221993670117357</v>
+        <v>0.2186786577056076</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>91</v>
@@ -786,19 +786,19 @@
         <v>94852</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>78207</v>
+        <v>78604</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>114971</v>
+        <v>112870</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1776762355689417</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1464966105249507</v>
+        <v>0.1472398396500705</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2153628430367619</v>
+        <v>0.2114265013045212</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>222134</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>207080</v>
+        <v>209201</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>234633</v>
+        <v>235500</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8136471344568351</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7585075620673852</v>
+        <v>0.7662755707280208</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8594313449050627</v>
+        <v>0.8626054046475211</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>203</v>
@@ -836,19 +836,19 @@
         <v>216862</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>202934</v>
+        <v>203798</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>227152</v>
+        <v>228384</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8314052839972631</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7780063298826437</v>
+        <v>0.7813213422943921</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8708531291761115</v>
+        <v>0.8755771186912356</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>425</v>
@@ -857,19 +857,19 @@
         <v>438996</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>418877</v>
+        <v>420978</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>455641</v>
+        <v>455244</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8223237644310583</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7846371569632381</v>
+        <v>0.7885734986954789</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8535033894750493</v>
+        <v>0.8527601603499294</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>162514</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>141897</v>
+        <v>140393</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>183888</v>
+        <v>184103</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.329592747434544</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2877789010833741</v>
+        <v>0.2847294290317418</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3729409358155455</v>
+        <v>0.3733766585437209</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>180</v>
@@ -982,19 +982,19 @@
         <v>181586</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>159483</v>
+        <v>160380</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>199725</v>
+        <v>204798</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3603262917299386</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3164667501798686</v>
+        <v>0.3182471173917396</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3963202948570179</v>
+        <v>0.4063856985303062</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>329</v>
@@ -1003,19 +1003,19 @@
         <v>344100</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>315225</v>
+        <v>313961</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>375219</v>
+        <v>378030</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3451271158377646</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3161656128911743</v>
+        <v>0.3148983179048748</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3763385773017889</v>
+        <v>0.3791584566994954</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>330561</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>309187</v>
+        <v>308972</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>351178</v>
+        <v>352682</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.670407252565456</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6270590641844545</v>
+        <v>0.6266233414562791</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7122210989166259</v>
+        <v>0.7152705709682583</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>319</v>
@@ -1053,19 +1053,19 @@
         <v>322363</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>304224</v>
+        <v>299151</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>344466</v>
+        <v>343569</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6396737082700613</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6036797051429821</v>
+        <v>0.5936143014696934</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6835332498201314</v>
+        <v>0.6817528826082602</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>635</v>
@@ -1074,19 +1074,19 @@
         <v>652924</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>621805</v>
+        <v>618994</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>681799</v>
+        <v>683063</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6548728841622353</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6236614226982108</v>
+        <v>0.6208415433005045</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6838343871088254</v>
+        <v>0.6851016820951245</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>69179</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>55926</v>
+        <v>54470</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84659</v>
+        <v>86078</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2169655167695228</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1754007964496121</v>
+        <v>0.170835240470661</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2655163525874603</v>
+        <v>0.2699661936098139</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>128</v>
@@ -1199,19 +1199,19 @@
         <v>130100</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>112331</v>
+        <v>112293</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>148067</v>
+        <v>148453</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3878808795492984</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3349045638712036</v>
+        <v>0.3347908570889517</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4414473489561798</v>
+        <v>0.4425988627912523</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>194</v>
@@ -1220,19 +1220,19 @@
         <v>199278</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>176595</v>
+        <v>177616</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>223668</v>
+        <v>222232</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3045870232301316</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2699166081159615</v>
+        <v>0.2714772413738061</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3418656371258433</v>
+        <v>0.3396700337332192</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>249667</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>234187</v>
+        <v>232768</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>262920</v>
+        <v>264376</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7830344832304772</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7344836474125397</v>
+        <v>0.730033806390186</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8245992035503877</v>
+        <v>0.8291647595293389</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>207</v>
@@ -1270,19 +1270,19 @@
         <v>205312</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>187345</v>
+        <v>186959</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>223081</v>
+        <v>223119</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6121191204507016</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5585526510438202</v>
+        <v>0.5574011372087477</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6650954361287964</v>
+        <v>0.6652091429110485</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>451</v>
@@ -1291,19 +1291,19 @@
         <v>454980</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>430590</v>
+        <v>432026</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>477663</v>
+        <v>476642</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6954129767698685</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6581343628741569</v>
+        <v>0.6603299662667809</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7300833918840386</v>
+        <v>0.728522758626194</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>105670</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>88125</v>
+        <v>89730</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>123917</v>
+        <v>122464</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2946152962790313</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2456998908454364</v>
+        <v>0.2501732531429977</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3454905505327944</v>
+        <v>0.3414393495569124</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>94</v>
@@ -1416,19 +1416,19 @@
         <v>91497</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>76338</v>
+        <v>75971</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>108924</v>
+        <v>107526</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2463197067295116</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2055099798528354</v>
+        <v>0.2045226380039367</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2932363573599598</v>
+        <v>0.2894706269014725</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>196</v>
@@ -1437,19 +1437,19 @@
         <v>197167</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>173959</v>
+        <v>172839</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>220346</v>
+        <v>220894</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2700446627724386</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2382584181788682</v>
+        <v>0.236725251010575</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3017908387419797</v>
+        <v>0.3025420735098188</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>253001</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>234754</v>
+        <v>236207</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>270546</v>
+        <v>268941</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7053847037209687</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6545094494672056</v>
+        <v>0.6585606504430878</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7543001091545637</v>
+        <v>0.7498267468570023</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>290</v>
@@ -1487,19 +1487,19 @@
         <v>279959</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>262532</v>
+        <v>263930</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>295118</v>
+        <v>295485</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7536802932704885</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7067636426400402</v>
+        <v>0.7105293730985275</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7944900201471647</v>
+        <v>0.7954773619960633</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>550</v>
@@ -1508,19 +1508,19 @@
         <v>532960</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>509781</v>
+        <v>509233</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>556168</v>
+        <v>557288</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7299553372275615</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6982091612580202</v>
+        <v>0.6974579264901811</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7617415818211317</v>
+        <v>0.763274748989425</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>95597</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>82152</v>
+        <v>82298</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>110601</v>
+        <v>110225</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4702072406218027</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.404075529172469</v>
+        <v>0.4047948522814396</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5440077123593913</v>
+        <v>0.5421590354069658</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>88</v>
@@ -1633,19 +1633,19 @@
         <v>92292</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>78541</v>
+        <v>77796</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>105382</v>
+        <v>107121</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4444229520753475</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3782046079691631</v>
+        <v>0.374618581643621</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5074550763888021</v>
+        <v>0.5158267186871354</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>185</v>
@@ -1654,19 +1654,19 @@
         <v>187889</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>167199</v>
+        <v>167948</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>208913</v>
+        <v>208139</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4571783264405276</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4068342281849565</v>
+        <v>0.408656923440061</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.508334213486883</v>
+        <v>0.5064496949017205</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>107711</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>92707</v>
+        <v>93083</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>121156</v>
+        <v>121010</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5297927593781974</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4559922876406087</v>
+        <v>0.4578409645930342</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.595924470827531</v>
+        <v>0.5952051477185604</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>110</v>
@@ -1704,19 +1704,19 @@
         <v>115376</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>102286</v>
+        <v>100547</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>129127</v>
+        <v>129872</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5555770479246525</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4925449236111979</v>
+        <v>0.4841732813128651</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6217953920308369</v>
+        <v>0.6253814183563795</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>219</v>
@@ -1725,19 +1725,19 @@
         <v>223087</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>202063</v>
+        <v>202837</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>243777</v>
+        <v>243028</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5428216735594723</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.491665786513117</v>
+        <v>0.4935503050982795</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5931657718150436</v>
+        <v>0.591343076559939</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>45597</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34774</v>
+        <v>34020</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>60090</v>
+        <v>58881</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1683728558621185</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.128407782823085</v>
+        <v>0.1256213640248331</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2218908942661065</v>
+        <v>0.2174251776898256</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>76</v>
@@ -1850,19 +1850,19 @@
         <v>78897</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>64824</v>
+        <v>64948</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>94738</v>
+        <v>94076</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2836535585781507</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2330598917959625</v>
+        <v>0.2335056137344577</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3406083471397831</v>
+        <v>0.3382289698880432</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>122</v>
@@ -1871,19 +1871,19 @@
         <v>124494</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>105044</v>
+        <v>105856</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>144074</v>
+        <v>145074</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2267831728147857</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1913527677099762</v>
+        <v>0.1928314423096204</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.262452010359098</v>
+        <v>0.2642723811177158</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>225214</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>210721</v>
+        <v>211930</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236037</v>
+        <v>236791</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8316271441378815</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7781091057338935</v>
+        <v>0.7825748223101745</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.871592217176915</v>
+        <v>0.8743786359751671</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>194</v>
@@ -1921,19 +1921,19 @@
         <v>199247</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>183406</v>
+        <v>184068</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>213320</v>
+        <v>213196</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7163464414218493</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6593916528602168</v>
+        <v>0.6617710301119567</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7669401082040375</v>
+        <v>0.7664943862655422</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>414</v>
@@ -1942,19 +1942,19 @@
         <v>424461</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>404881</v>
+        <v>403881</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>443911</v>
+        <v>443099</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7732168271852142</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7375479896409021</v>
+        <v>0.7357276188822841</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8086472322900239</v>
+        <v>0.8071685576903797</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>145092</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>124457</v>
+        <v>125747</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>167921</v>
+        <v>163998</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2359114261216644</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2023606613716496</v>
+        <v>0.2044578599125477</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2730295870416833</v>
+        <v>0.2666523700324234</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>203</v>
@@ -2067,19 +2067,19 @@
         <v>210875</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>186279</v>
+        <v>188445</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>236594</v>
+        <v>238537</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3304109772322494</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.291873370589377</v>
+        <v>0.2952662062698416</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3707091251738485</v>
+        <v>0.3737535070131335</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>346</v>
@@ -2088,19 +2088,19 @@
         <v>355966</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>325366</v>
+        <v>320938</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>389423</v>
+        <v>389997</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2840355857847874</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2596182354317905</v>
+        <v>0.2560855568751572</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3107312981569521</v>
+        <v>0.311189488489755</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>469935</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>447106</v>
+        <v>451029</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>490570</v>
+        <v>489280</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7640885738783356</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7269704129583167</v>
+        <v>0.7333476299675766</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7976393386283505</v>
+        <v>0.7955421400874525</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>418</v>
@@ -2138,19 +2138,19 @@
         <v>427344</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>401625</v>
+        <v>399682</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>451940</v>
+        <v>449774</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6695890227677506</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6292908748261514</v>
+        <v>0.6262464929868665</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.708126629410623</v>
+        <v>0.7047337937301585</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>873</v>
@@ -2159,19 +2159,19 @@
         <v>897280</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>863823</v>
+        <v>863249</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>927880</v>
+        <v>932308</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7159644142152126</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6892687018430479</v>
+        <v>0.688810511510245</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7403817645682095</v>
+        <v>0.7439144431248429</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>292854</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>265534</v>
+        <v>265058</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>319006</v>
+        <v>317858</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3937290547821005</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.356998375482366</v>
+        <v>0.3563593211702312</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4288894300877221</v>
+        <v>0.4273468463038927</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>318</v>
@@ -2284,19 +2284,19 @@
         <v>333468</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>305647</v>
+        <v>306287</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>362372</v>
+        <v>362284</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.425607586161339</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3900992643834933</v>
+        <v>0.3909154568189316</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4624970916793197</v>
+        <v>0.4623856900501468</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>605</v>
@@ -2305,19 +2305,19 @@
         <v>626322</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>584959</v>
+        <v>589085</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>665183</v>
+        <v>664075</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4100828040078282</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3830004094971324</v>
+        <v>0.3857019749165079</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4355267729863387</v>
+        <v>0.434801702931462</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>450941</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>424789</v>
+        <v>425937</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>478261</v>
+        <v>478737</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6062709452178995</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5711105699122778</v>
+        <v>0.5726531536961073</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6430016245176339</v>
+        <v>0.6436406788297686</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>427</v>
@@ -2355,19 +2355,19 @@
         <v>450043</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>421139</v>
+        <v>421227</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>477864</v>
+        <v>477224</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.574392413838661</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5375029083206803</v>
+        <v>0.5376143099498532</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6099007356165067</v>
+        <v>0.6090845431810684</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>876</v>
@@ -2376,19 +2376,19 @@
         <v>900984</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>862123</v>
+        <v>863231</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>942347</v>
+        <v>938221</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5899171959921718</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5644732270136611</v>
+        <v>0.5651982970685379</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6169995905028673</v>
+        <v>0.614298025083492</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>967378</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>919850</v>
+        <v>920691</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1018650</v>
+        <v>1024420</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2952436177848578</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.280737893077274</v>
+        <v>0.2809946008227046</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3108917787262384</v>
+        <v>0.3126527666479297</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1129</v>
@@ -2501,19 +2501,19 @@
         <v>1162691</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1102129</v>
+        <v>1106220</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1214945</v>
+        <v>1219746</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3440730259216244</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3261511653591103</v>
+        <v>0.3273618084042295</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3595365054260688</v>
+        <v>0.3609574382287812</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2068</v>
@@ -2522,19 +2522,19 @@
         <v>2130069</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2053923</v>
+        <v>2054348</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2203949</v>
+        <v>2205759</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3200348790026891</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3085942606506412</v>
+        <v>0.3086580730625506</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3311349645034042</v>
+        <v>0.3314070318207269</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2309165</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2257893</v>
+        <v>2252123</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2356693</v>
+        <v>2355852</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7047563822151421</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6891082212737616</v>
+        <v>0.6873472333520709</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7192621069227259</v>
+        <v>0.7190053991772958</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2168</v>
@@ -2572,19 +2572,19 @@
         <v>2216506</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2164252</v>
+        <v>2159451</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2277068</v>
+        <v>2272977</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6559269740783755</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6404634945739313</v>
+        <v>0.6390425617712188</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6738488346408897</v>
+        <v>0.6726381915957704</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4443</v>
@@ -2593,19 +2593,19 @@
         <v>4525672</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4451792</v>
+        <v>4449982</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4601818</v>
+        <v>4601393</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6799651209973109</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6688650354965957</v>
+        <v>0.6685929681792731</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6914057393493588</v>
+        <v>0.6913419269374494</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>130206</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>113919</v>
+        <v>113060</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>148322</v>
+        <v>148659</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.446761151444771</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3908785729038876</v>
+        <v>0.3879309791689636</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5089216926327392</v>
+        <v>0.5100780394364649</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>113</v>
@@ -2962,19 +2962,19 @@
         <v>128405</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>109823</v>
+        <v>110558</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>146616</v>
+        <v>147128</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4531466028614202</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3875703230705454</v>
+        <v>0.3901625762006777</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5174118651839897</v>
+        <v>0.5192182494660489</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>237</v>
@@ -2983,19 +2983,19 @@
         <v>258611</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>232857</v>
+        <v>232771</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>282185</v>
+        <v>280910</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4499089947351412</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4051039738141994</v>
+        <v>0.4049541015622231</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4909207686329969</v>
+        <v>0.4887016937080714</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>161238</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>143122</v>
+        <v>142785</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>177525</v>
+        <v>178384</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.553238848555229</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4910783073672608</v>
+        <v>0.4899219605635351</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6091214270961125</v>
+        <v>0.6120690208310364</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>140</v>
@@ -3033,19 +3033,19 @@
         <v>154959</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>136748</v>
+        <v>136236</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>173541</v>
+        <v>172806</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5468533971385797</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4825881348160102</v>
+        <v>0.4807817505339511</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6124296769294546</v>
+        <v>0.6098374237993224</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>295</v>
@@ -3054,19 +3054,19 @@
         <v>316197</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>292623</v>
+        <v>293898</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>341951</v>
+        <v>342037</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5500910052648588</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5090792313670031</v>
+        <v>0.5112983062919286</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5948960261858005</v>
+        <v>0.595045898437777</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>196179</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>174102</v>
+        <v>171143</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>219306</v>
+        <v>216683</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3880686221334385</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3443975186655422</v>
+        <v>0.3385441435634619</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4338167316622609</v>
+        <v>0.4286287098856689</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>198</v>
@@ -3179,19 +3179,19 @@
         <v>219668</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>194910</v>
+        <v>195405</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>240136</v>
+        <v>243870</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4194011080375687</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.372132510280117</v>
+        <v>0.3730768058571442</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4584805072583824</v>
+        <v>0.46560894772624</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>377</v>
@@ -3200,19 +3200,19 @@
         <v>415847</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>382959</v>
+        <v>382176</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>449883</v>
+        <v>447079</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4040124509499332</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3720606279446436</v>
+        <v>0.3712998661482528</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.43708022645077</v>
+        <v>0.4343558422184508</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>309348</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>286221</v>
+        <v>288844</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>331425</v>
+        <v>334384</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6119313778665616</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.566183268337739</v>
+        <v>0.5713712901143304</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6556024813344576</v>
+        <v>0.6614558564365378</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>282</v>
@@ -3250,19 +3250,19 @@
         <v>304097</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>283629</v>
+        <v>279895</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>328855</v>
+        <v>328360</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5805988919624313</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5415194927416176</v>
+        <v>0.5343910522737599</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6278674897198829</v>
+        <v>0.6269231941428558</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>575</v>
@@ -3271,19 +3271,19 @@
         <v>613445</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>579409</v>
+        <v>582213</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>646333</v>
+        <v>647116</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5959875490500668</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5629197735492301</v>
+        <v>0.5656441577815495</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6279393720553563</v>
+        <v>0.6287001338517472</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>147029</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>127983</v>
+        <v>130117</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>164441</v>
+        <v>165721</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4550652709556994</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.396116862036907</v>
+        <v>0.4027203174441472</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5089570005488276</v>
+        <v>0.5129198616272035</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>168</v>
@@ -3396,19 +3396,19 @@
         <v>179266</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>158919</v>
+        <v>158463</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>195917</v>
+        <v>197455</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5256750005301692</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.466010136452271</v>
+        <v>0.4646746397192669</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5745025043716484</v>
+        <v>0.579011857705494</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>315</v>
@@ -3417,19 +3417,19 @@
         <v>326295</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>299282</v>
+        <v>301081</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>353676</v>
+        <v>353194</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4913231205246754</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4506483002536041</v>
+        <v>0.4533578686506442</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5325525038350255</v>
+        <v>0.5318269089856726</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>176065</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>158653</v>
+        <v>157373</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>195111</v>
+        <v>192977</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5449347290443005</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4910429994511724</v>
+        <v>0.4870801383727967</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6038831379630929</v>
+        <v>0.5972796825558528</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>149</v>
@@ -3467,19 +3467,19 @@
         <v>161754</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>145103</v>
+        <v>143565</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>182101</v>
+        <v>182557</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4743249994698307</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4254974956283515</v>
+        <v>0.4209881422945059</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5339898635477286</v>
+        <v>0.5353253602807333</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>320</v>
@@ -3488,19 +3488,19 @@
         <v>337819</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>310438</v>
+        <v>310920</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>364832</v>
+        <v>363033</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5086768794753246</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4674474961649744</v>
+        <v>0.4681730910143274</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.549351699746396</v>
+        <v>0.5466421313493558</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>122533</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>103615</v>
+        <v>104044</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>139950</v>
+        <v>141597</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.328669567626965</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2779273289020792</v>
+        <v>0.2790785200462509</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3753893254945174</v>
+        <v>0.3798051138565618</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>151</v>
@@ -3613,19 +3613,19 @@
         <v>158542</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>139023</v>
+        <v>140175</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>178578</v>
+        <v>176693</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4096888783774107</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3592507029963787</v>
+        <v>0.3622265966807011</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4614647396995801</v>
+        <v>0.4565934302109293</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>265</v>
@@ -3634,19 +3634,19 @@
         <v>281075</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>252951</v>
+        <v>254971</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>308933</v>
+        <v>309399</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3699345537149964</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3329193278615692</v>
+        <v>0.3355778881497618</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4066001446511959</v>
+        <v>0.4072130682609073</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>250281</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>232864</v>
+        <v>231217</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>269199</v>
+        <v>268770</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6713304323730349</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6246106745054826</v>
+        <v>0.6201948861434381</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7220726710979208</v>
+        <v>0.7209214799537491</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>218</v>
@@ -3684,19 +3684,19 @@
         <v>228439</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>208403</v>
+        <v>210288</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>247958</v>
+        <v>246806</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5903111216225893</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5385352603004195</v>
+        <v>0.5434065697890706</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6407492970036213</v>
+        <v>0.637773403319299</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>447</v>
@@ -3705,19 +3705,19 @@
         <v>478721</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>450863</v>
+        <v>450397</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>506845</v>
+        <v>504825</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6300654462850036</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5933998553488041</v>
+        <v>0.5927869317390926</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6670806721384308</v>
+        <v>0.6644221118502381</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>147553</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>133070</v>
+        <v>133355</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>160820</v>
+        <v>159911</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6939798461950173</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6258650150174566</v>
+        <v>0.6272052969199629</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7563818333003456</v>
+        <v>0.7521064324889695</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>133</v>
@@ -3830,19 +3830,19 @@
         <v>136192</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>122616</v>
+        <v>120308</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>149758</v>
+        <v>149174</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6202098137078346</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5583828807542325</v>
+        <v>0.5478727628704484</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.681984831642159</v>
+        <v>0.6793278296373455</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>268</v>
@@ -3851,19 +3851,19 @@
         <v>283745</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>263601</v>
+        <v>261385</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>302703</v>
+        <v>304585</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6564997527021437</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6098917354331167</v>
+        <v>0.6047660087275393</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.700362083434045</v>
+        <v>0.704715820363476</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>65065</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>51798</v>
+        <v>52707</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>79548</v>
+        <v>79263</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3060201538049828</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2436181666996548</v>
+        <v>0.2478935675110306</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3741349849825437</v>
+        <v>0.3727947030800373</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>79</v>
@@ -3901,19 +3901,19 @@
         <v>83399</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>69833</v>
+        <v>70417</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>96975</v>
+        <v>99283</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3797901862921654</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.318015168357841</v>
+        <v>0.3206721703626547</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4416171192457676</v>
+        <v>0.4521272371295521</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>140</v>
@@ -3922,19 +3922,19 @@
         <v>148464</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>129506</v>
+        <v>127624</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>168608</v>
+        <v>170824</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3435002472978563</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.299637916565955</v>
+        <v>0.295284179636524</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3901082645668832</v>
+        <v>0.3952339912724607</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>140141</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>123052</v>
+        <v>120647</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>157007</v>
+        <v>154504</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5114982407251273</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4491273255922824</v>
+        <v>0.4403478627181213</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5730570078517403</v>
+        <v>0.5639217580864501</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>118</v>
@@ -4047,19 +4047,19 @@
         <v>121676</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>105766</v>
+        <v>106186</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>137651</v>
+        <v>138539</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4345080212422079</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3776950835280359</v>
+        <v>0.379194947707743</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4915565951885976</v>
+        <v>0.4947284528165183</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>252</v>
@@ -4068,19 +4068,19 @@
         <v>261817</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>239083</v>
+        <v>237245</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>287896</v>
+        <v>286000</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4725827516377377</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4315479545336204</v>
+        <v>0.4282304008127803</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5196568190495143</v>
+        <v>0.5162347668706206</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>133840</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>116974</v>
+        <v>119477</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>150929</v>
+        <v>153334</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4885017592748728</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4269429921482596</v>
+        <v>0.43607824191355</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5508726744077176</v>
+        <v>0.5596521372818787</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>151</v>
@@ -4118,19 +4118,19 @@
         <v>158355</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>142380</v>
+        <v>141492</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>174265</v>
+        <v>173845</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.565491978757792</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5084434048114023</v>
+        <v>0.5052715471834817</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6223049164719638</v>
+        <v>0.6208050522922569</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>278</v>
@@ -4139,19 +4139,19 @@
         <v>292195</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>266116</v>
+        <v>268012</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>314929</v>
+        <v>316767</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5274172483622623</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4803431809504857</v>
+        <v>0.4837652331293795</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5684520454663796</v>
+        <v>0.5717695991872197</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>279143</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>254303</v>
+        <v>254500</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>307321</v>
+        <v>307434</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4211645210450313</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3836869638531933</v>
+        <v>0.3839835396645098</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4636798807510196</v>
+        <v>0.463849381324587</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>253</v>
@@ -4264,19 +4264,19 @@
         <v>278164</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>252825</v>
+        <v>249692</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>306241</v>
+        <v>306143</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4008975917671235</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3643780723936806</v>
+        <v>0.3598634989160036</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4413627507839859</v>
+        <v>0.4412214382303973</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>517</v>
@@ -4285,19 +4285,19 @@
         <v>557307</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>521679</v>
+        <v>519446</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>597178</v>
+        <v>594928</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4107990161078112</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.38453723282037</v>
+        <v>0.382891498989585</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4401885452453784</v>
+        <v>0.4385301066965875</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>383645</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>355467</v>
+        <v>355354</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>408485</v>
+        <v>408288</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5788354789549687</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5363201192489803</v>
+        <v>0.5361506186754117</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6163130361468067</v>
+        <v>0.6160164603354898</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>383</v>
@@ -4335,19 +4335,19 @@
         <v>415689</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>387612</v>
+        <v>387710</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>441028</v>
+        <v>444161</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5991024082328765</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5586372492160142</v>
+        <v>0.5587785617696029</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6356219276063195</v>
+        <v>0.6401365010839968</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>737</v>
@@ -4356,19 +4356,19 @@
         <v>799334</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>759463</v>
+        <v>761713</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>834962</v>
+        <v>837195</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5892009838921889</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5598114547546216</v>
+        <v>0.5614698933034125</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.61546276717963</v>
+        <v>0.6171085010104149</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>195852</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>171708</v>
+        <v>171399</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>221564</v>
+        <v>221307</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2513829875130883</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2203927846093442</v>
+        <v>0.2199973087431087</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2843847415021815</v>
+        <v>0.2840555851951452</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>179</v>
@@ -4481,19 +4481,19 @@
         <v>193680</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>167489</v>
+        <v>169938</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>219604</v>
+        <v>219737</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2350909179810965</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2032991152487786</v>
+        <v>0.2062727069563386</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2665566672032973</v>
+        <v>0.2667184300514421</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>362</v>
@@ -4502,19 +4502,19 @@
         <v>389532</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>353934</v>
+        <v>352793</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>428366</v>
+        <v>425034</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2430095137674086</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2208018049521815</v>
+        <v>0.220089881019726</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2672355994862454</v>
+        <v>0.2651574450584024</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>583246</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>557534</v>
+        <v>557791</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>607390</v>
+        <v>607699</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7486170124869117</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7156152584978184</v>
+        <v>0.7159444148048552</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7796072153906555</v>
+        <v>0.7800026912568915</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>578</v>
@@ -4552,19 +4552,19 @@
         <v>630173</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>604249</v>
+        <v>604116</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>656364</v>
+        <v>653915</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7649090820189035</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7334433327967029</v>
+        <v>0.7332815699485582</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7967008847512216</v>
+        <v>0.7937272930436615</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1112</v>
@@ -4573,19 +4573,19 @@
         <v>1213419</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1174585</v>
+        <v>1177917</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1249017</v>
+        <v>1250158</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7569904862325915</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7327644005137549</v>
+        <v>0.7348425549415977</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7791981950478187</v>
+        <v>0.7799101189802753</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>1358635</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1298721</v>
+        <v>1296184</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1422966</v>
+        <v>1423122</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3971032046022192</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3795916139937504</v>
+        <v>0.3788499154973507</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4159060776412247</v>
+        <v>0.4159516617265092</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1313</v>
@@ -4698,19 +4698,19 @@
         <v>1415593</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1356906</v>
+        <v>1353373</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1479147</v>
+        <v>1474414</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3984827164994792</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3819625533530212</v>
+        <v>0.3809681368805406</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4163729689347302</v>
+        <v>0.4150405642030029</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2593</v>
@@ -4719,19 +4719,19 @@
         <v>2774228</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2691764</v>
+        <v>2690298</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2860511</v>
+        <v>2862893</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3978059265144636</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3859810807130303</v>
+        <v>0.3857709410091506</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4101783018810876</v>
+        <v>0.4105199054624102</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2062730</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1998399</v>
+        <v>1998243</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2122644</v>
+        <v>2125181</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6028967953977808</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5840939223587753</v>
+        <v>0.5840483382734907</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6204083860062496</v>
+        <v>0.6211500845026493</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1980</v>
@@ -4769,19 +4769,19 @@
         <v>2136865</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2073311</v>
+        <v>2078044</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2195552</v>
+        <v>2199085</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6015172835005208</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5836270310652695</v>
+        <v>0.5849594357969972</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6180374466469786</v>
+        <v>0.6190318631194595</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3904</v>
@@ -4790,19 +4790,19 @@
         <v>4199595</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4113312</v>
+        <v>4110930</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4282059</v>
+        <v>4283525</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6021940734855364</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5898216981189125</v>
+        <v>0.5894800945375898</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6140189192869697</v>
+        <v>0.6142290589908493</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>107215</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>91104</v>
+        <v>89921</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>125765</v>
+        <v>123898</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3649722224914017</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3101303937735613</v>
+        <v>0.3061040813700094</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4281190896610085</v>
+        <v>0.4217638809235796</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>132</v>
@@ -5159,19 +5159,19 @@
         <v>140503</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>122030</v>
+        <v>123242</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>158230</v>
+        <v>158165</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4866680331662616</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4226838948898505</v>
+        <v>0.4268811176412251</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5480729037135192</v>
+        <v>0.547846280693993</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>228</v>
@@ -5180,19 +5180,19 @@
         <v>247717</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>221048</v>
+        <v>223930</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>271436</v>
+        <v>273609</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4252917367795951</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3795046743763507</v>
+        <v>0.3844526590913099</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4660126661055598</v>
+        <v>0.469743769566602</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>186546</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>167996</v>
+        <v>169863</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>202657</v>
+        <v>203840</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6350277775085983</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5718809103389915</v>
+        <v>0.5782361190764204</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6898696062264387</v>
+        <v>0.6938959186299904</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>145</v>
@@ -5230,19 +5230,19 @@
         <v>148200</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>130473</v>
+        <v>130538</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>166673</v>
+        <v>165461</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5133319668337384</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4519270962864807</v>
+        <v>0.452153719306007</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5773161051101495</v>
+        <v>0.573118882358775</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>315</v>
@@ -5251,19 +5251,19 @@
         <v>334747</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>311028</v>
+        <v>308855</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>361416</v>
+        <v>358534</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5747082632204049</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5339873338944402</v>
+        <v>0.5302562304333982</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6204953256236494</v>
+        <v>0.6155473409086901</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>273398</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>251275</v>
+        <v>252851</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>297692</v>
+        <v>297213</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5439939583154568</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4999754388359615</v>
+        <v>0.5031103868381529</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5923325861934186</v>
+        <v>0.5913804440487516</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>252</v>
@@ -5376,19 +5376,19 @@
         <v>272311</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>250308</v>
+        <v>249371</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>298144</v>
+        <v>296261</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5205883612894071</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4785238011992943</v>
+        <v>0.4767331631478222</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5699744206078061</v>
+        <v>0.5663745026382566</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>510</v>
@@ -5397,19 +5397,19 @@
         <v>545709</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>514577</v>
+        <v>513308</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>578779</v>
+        <v>578667</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5320571557337598</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5017039374355693</v>
+        <v>0.500466762831698</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5642994184688419</v>
+        <v>0.5641901405640825</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>229177</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>204883</v>
+        <v>205362</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>251300</v>
+        <v>249724</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4560060416845431</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4076674138065815</v>
+        <v>0.4086195559512484</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5000245611640385</v>
+        <v>0.4968896131618471</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>232</v>
@@ -5447,19 +5447,19 @@
         <v>250773</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>224940</v>
+        <v>226823</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>272776</v>
+        <v>273713</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4794116387105929</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4300255793921938</v>
+        <v>0.4336254973617433</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5214761988007056</v>
+        <v>0.5232668368521776</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>449</v>
@@ -5468,19 +5468,19 @@
         <v>479950</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>446880</v>
+        <v>446992</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>511082</v>
+        <v>512351</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4679428442662403</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4357005815311581</v>
+        <v>0.4358098594359175</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4982960625644306</v>
+        <v>0.4995332371683017</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>99356</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>82672</v>
+        <v>84125</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>115121</v>
+        <v>115388</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3118863730947128</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2595151021189812</v>
+        <v>0.2640746312975683</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3613749345210343</v>
+        <v>0.3622112887860761</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -5593,19 +5593,19 @@
         <v>94909</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>78894</v>
+        <v>80174</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>113413</v>
+        <v>112526</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2822081658835323</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2345868865725609</v>
+        <v>0.2383928604108803</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3372285910458848</v>
+        <v>0.3345904766842013</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>193</v>
@@ -5614,19 +5614,19 @@
         <v>194265</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>172900</v>
+        <v>170309</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>220284</v>
+        <v>216000</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2966451995951612</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2640203451062393</v>
+        <v>0.2600637398399021</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3363756072439317</v>
+        <v>0.3298347084255617</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>219209</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>203444</v>
+        <v>203177</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>235893</v>
+        <v>234440</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6881136269052872</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6386250654789659</v>
+        <v>0.6377887112139239</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7404848978810188</v>
+        <v>0.7359253687024317</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>241</v>
@@ -5664,19 +5664,19 @@
         <v>241400</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>222896</v>
+        <v>223783</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>257415</v>
+        <v>256135</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7177918341164677</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6627714089541155</v>
+        <v>0.6654095233157987</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.765413113427439</v>
+        <v>0.7616071395891196</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>474</v>
@@ -5685,19 +5685,19 @@
         <v>460609</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>434590</v>
+        <v>438874</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>481974</v>
+        <v>484565</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7033548004048388</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6636243927560683</v>
+        <v>0.6701652915744384</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7359796548937607</v>
+        <v>0.7399362601600979</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>115352</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>97610</v>
+        <v>96973</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>134761</v>
+        <v>133311</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3128641791225173</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2647431637484802</v>
+        <v>0.2630142380390202</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3655068875057936</v>
+        <v>0.3615737783180779</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>128</v>
@@ -5810,19 +5810,19 @@
         <v>139266</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>120363</v>
+        <v>120358</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>161075</v>
+        <v>158931</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3595981331667206</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3107876873671601</v>
+        <v>0.3107762958651339</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4159101640310531</v>
+        <v>0.4103735622079943</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>241</v>
@@ -5831,19 +5831,19 @@
         <v>254618</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>225627</v>
+        <v>230473</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>282193</v>
+        <v>282872</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3368056490128176</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2984561803887543</v>
+        <v>0.3048665753191679</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3732816858918926</v>
+        <v>0.3741789788594563</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>253345</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>233936</v>
+        <v>235386</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>271087</v>
+        <v>271724</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6871358208774827</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6344931124942064</v>
+        <v>0.6384262216819222</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7352568362515196</v>
+        <v>0.7369857619609799</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>230</v>
@@ -5881,19 +5881,19 @@
         <v>248017</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>226208</v>
+        <v>228352</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>266920</v>
+        <v>266925</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6404018668332794</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5840898359689468</v>
+        <v>0.5896264377920057</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.68921231263284</v>
+        <v>0.6892237041348661</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>470</v>
@@ -5902,19 +5902,19 @@
         <v>501362</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>473787</v>
+        <v>473108</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>530353</v>
+        <v>525507</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6631943509871824</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6267183141081074</v>
+        <v>0.6258210211405437</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7015438196112456</v>
+        <v>0.6951334246808319</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>48278</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36834</v>
+        <v>36743</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60796</v>
+        <v>61116</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2285670427084036</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1743847543107885</v>
+        <v>0.1739572768191836</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2878325937077898</v>
+        <v>0.2893483789891186</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>54</v>
@@ -6027,19 +6027,19 @@
         <v>53108</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>41481</v>
+        <v>40133</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>67457</v>
+        <v>66401</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2429609690900978</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1897697627649001</v>
+        <v>0.1836009821088756</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3086063614129211</v>
+        <v>0.3037728600084948</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>103</v>
@@ -6048,19 +6048,19 @@
         <v>101386</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>83883</v>
+        <v>87510</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>119047</v>
+        <v>122085</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2358873466551466</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1951635812983467</v>
+        <v>0.2036029843677793</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2769767837947319</v>
+        <v>0.2840462803966753</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>162943</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>150425</v>
+        <v>150105</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>174387</v>
+        <v>174478</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7714329572915963</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7121674062922104</v>
+        <v>0.7106516210108815</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8256152456892116</v>
+        <v>0.8260427231808164</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>169</v>
@@ -6098,19 +6098,19 @@
         <v>165479</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>151130</v>
+        <v>152186</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>177106</v>
+        <v>178454</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7570390309099021</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6913936385870789</v>
+        <v>0.696227139991505</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8102302372350999</v>
+        <v>0.816399017891124</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>332</v>
@@ -6119,19 +6119,19 @@
         <v>328422</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>310761</v>
+        <v>307723</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>345925</v>
+        <v>342298</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7641126533448535</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7230232162052681</v>
+        <v>0.7159537196033247</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8048364187016533</v>
+        <v>0.7963970156322207</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>104118</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>88383</v>
+        <v>88162</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>120295</v>
+        <v>120213</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3957001722050474</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.33590048367849</v>
+        <v>0.3350593663518113</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4571827777393939</v>
+        <v>0.4568682502710767</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>88</v>
@@ -6244,19 +6244,19 @@
         <v>88913</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>72804</v>
+        <v>73915</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>105382</v>
+        <v>104444</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3267890869095816</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2675816436150905</v>
+        <v>0.2716676404024992</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3873204676799175</v>
+        <v>0.3838742197123266</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>190</v>
@@ -6265,19 +6265,19 @@
         <v>193031</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>172018</v>
+        <v>172664</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>215243</v>
+        <v>216781</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3606679882096981</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.321406435418234</v>
+        <v>0.322614884049377</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4021703795412461</v>
+        <v>0.4050450649328179</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>159005</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>142828</v>
+        <v>142910</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>174740</v>
+        <v>174961</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6042998277949526</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5428172222606061</v>
+        <v>0.5431317497289233</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6640995163215102</v>
+        <v>0.6649406336481888</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>174</v>
@@ -6315,19 +6315,19 @@
         <v>183167</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>166698</v>
+        <v>167636</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>199276</v>
+        <v>198165</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6732109130904184</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6126795323200825</v>
+        <v>0.6161257802876734</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7324183563849095</v>
+        <v>0.7283323595975009</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>331</v>
@@ -6336,19 +6336,19 @@
         <v>342172</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>319960</v>
+        <v>318422</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>363185</v>
+        <v>362539</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6393320117903019</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5978296204587538</v>
+        <v>0.594954935067182</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6785935645817659</v>
+        <v>0.6773851159506227</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>254517</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>228938</v>
+        <v>231693</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>281024</v>
+        <v>284097</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3876530508319662</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3486942527247957</v>
+        <v>0.3528902610435963</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4280261079534016</v>
+        <v>0.4327069088897382</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>261</v>
@@ -6461,19 +6461,19 @@
         <v>281030</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>256368</v>
+        <v>256263</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>311364</v>
+        <v>306081</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4072761482810414</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3715351326208741</v>
+        <v>0.3713827147315235</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4512366376561271</v>
+        <v>0.4435814306709947</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>490</v>
@@ -6482,19 +6482,19 @@
         <v>535547</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>497347</v>
+        <v>494650</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>571720</v>
+        <v>567901</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3977084339913415</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3693407458025336</v>
+        <v>0.3673379013273065</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4245717113379818</v>
+        <v>0.4217356305572343</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>402041</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>375534</v>
+        <v>372461</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>427620</v>
+        <v>424865</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6123469491680338</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5719738920465983</v>
+        <v>0.5672930911102618</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6513057472752043</v>
+        <v>0.6471097389564037</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>384</v>
@@ -6532,19 +6532,19 @@
         <v>408993</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>378659</v>
+        <v>383942</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>433655</v>
+        <v>433760</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5927238517189587</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5487633623438728</v>
+        <v>0.5564185693290052</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6284648673791259</v>
+        <v>0.6286172852684766</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>735</v>
@@ -6553,19 +6553,19 @@
         <v>811034</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>774861</v>
+        <v>778680</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>849234</v>
+        <v>851931</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6022915660086585</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5754282886620182</v>
+        <v>0.5782643694427657</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6306592541974664</v>
+        <v>0.6326620986726934</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>218578</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>194712</v>
+        <v>194029</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>246290</v>
+        <v>245879</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2807376283437101</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2500851064518272</v>
+        <v>0.2492084298370671</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3163305970237618</v>
+        <v>0.3158036532101793</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>207</v>
@@ -6678,19 +6678,19 @@
         <v>226826</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>200672</v>
+        <v>202840</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>253306</v>
+        <v>255238</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2745527312724865</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2428947648237804</v>
+        <v>0.2455196489757136</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3066041202782603</v>
+        <v>0.3089419230411791</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>413</v>
@@ -6699,19 +6699,19 @@
         <v>445404</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>409111</v>
+        <v>407962</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>485185</v>
+        <v>482308</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2775534826046023</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.254937442305439</v>
+        <v>0.2542214462980072</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3023427410017079</v>
+        <v>0.3005500395574175</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>560005</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>532293</v>
+        <v>532704</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>583871</v>
+        <v>584554</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7192623716562899</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6836694029762375</v>
+        <v>0.6841963467898208</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7499148935481728</v>
+        <v>0.750791570162933</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>548</v>
@@ -6749,19 +6749,19 @@
         <v>599341</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>572861</v>
+        <v>570929</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>625495</v>
+        <v>623327</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7254472687275135</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6933958797217395</v>
+        <v>0.6910580769588209</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7571052351762195</v>
+        <v>0.7544803510242863</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1092</v>
@@ -6770,19 +6770,19 @@
         <v>1159346</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1119565</v>
+        <v>1122442</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1195639</v>
+        <v>1196788</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7224465173953977</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6976572589982916</v>
+        <v>0.6994499604425828</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.74506255769456</v>
+        <v>0.745778553701993</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>1220811</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1159393</v>
+        <v>1162998</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1278340</v>
+        <v>1273123</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3597939833130324</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3416930709360902</v>
+        <v>0.3427556206614477</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.376748923100042</v>
+        <v>0.3752113350045632</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1213</v>
@@ -6895,19 +6895,19 @@
         <v>1296867</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1234767</v>
+        <v>1244425</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1353218</v>
+        <v>1360797</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3661152302898898</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.348583962360794</v>
+        <v>0.3513104935364176</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3820237300248164</v>
+        <v>0.384163173848027</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2368</v>
@@ -6916,19 +6916,19 @@
         <v>2517677</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2438256</v>
+        <v>2439942</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2601906</v>
+        <v>2609166</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3630225800516403</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3515708194827089</v>
+        <v>0.3518139525961006</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3751675012593411</v>
+        <v>0.3762142398203986</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2172272</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2114743</v>
+        <v>2119960</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2233690</v>
+        <v>2230085</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6402060166869676</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.623251076899958</v>
+        <v>0.6247886649954368</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6583069290639098</v>
+        <v>0.6572443793385525</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2123</v>
@@ -6966,19 +6966,19 @@
         <v>2245369</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2189018</v>
+        <v>2181439</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2307469</v>
+        <v>2297811</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6338847697101102</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6179762699751834</v>
+        <v>0.615836826151972</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.651416037639206</v>
+        <v>0.6486895064635818</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4198</v>
@@ -6987,19 +6987,19 @@
         <v>4417642</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4333413</v>
+        <v>4326153</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4497063</v>
+        <v>4495377</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6369774199483598</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6248324987406589</v>
+        <v>0.6237857601796013</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6484291805172911</v>
+        <v>0.6481860474038994</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>11220</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5806</v>
+        <v>5614</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20228</v>
+        <v>20134</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03518963939231861</v>
+        <v>0.03518963939231862</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01820796066682479</v>
+        <v>0.01760807895207963</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06344183364923431</v>
+        <v>0.06314521028611392</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -7356,19 +7356,19 @@
         <v>12268</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7854</v>
+        <v>7751</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18180</v>
+        <v>18743</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03881668372159028</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02484874617913515</v>
+        <v>0.02452418348085901</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05751901323992605</v>
+        <v>0.05930193425081724</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -7377,19 +7377,19 @@
         <v>23488</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16406</v>
+        <v>15922</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33195</v>
+        <v>34090</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03699520761801909</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02584007798802142</v>
+        <v>0.02507821794691766</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05228263291585866</v>
+        <v>0.05369340936296086</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>307625</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>298617</v>
+        <v>298711</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>313039</v>
+        <v>313231</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9648103606076814</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9365581663507658</v>
+        <v>0.9368547897138856</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9817920393331752</v>
+        <v>0.9823919210479199</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>517</v>
@@ -7427,19 +7427,19 @@
         <v>303793</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>297881</v>
+        <v>297318</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>308207</v>
+        <v>308310</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9611833162784098</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9424809867600741</v>
+        <v>0.9406980657491828</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9751512538208649</v>
+        <v>0.9754758165191409</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>837</v>
@@ -7448,19 +7448,19 @@
         <v>611418</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>601711</v>
+        <v>600816</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>618500</v>
+        <v>618984</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9630047923819809</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9477173670841412</v>
+        <v>0.9463065906370394</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9741599220119784</v>
+        <v>0.9749217820530823</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>76550</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56585</v>
+        <v>55938</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>101028</v>
+        <v>101565</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1442583306363303</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1066334726745124</v>
+        <v>0.1054140794342868</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1903865702892678</v>
+        <v>0.1913991065223867</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>97</v>
@@ -7573,19 +7573,19 @@
         <v>73053</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59899</v>
+        <v>60413</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>89772</v>
+        <v>87811</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1336763451144652</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1096053807124202</v>
+        <v>0.110546901252953</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1642695705521338</v>
+        <v>0.1606815104804271</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>147</v>
@@ -7594,19 +7594,19 @@
         <v>149604</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>125237</v>
+        <v>126233</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>177577</v>
+        <v>176344</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1388894946458208</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1162677318668194</v>
+        <v>0.1171923192963257</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1648591703409423</v>
+        <v>0.1637149730430883</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>454097</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>429619</v>
+        <v>429082</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>474062</v>
+        <v>474709</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8557416693636697</v>
+        <v>0.8557416693636696</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8096134297107324</v>
+        <v>0.8086008934776131</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8933665273254876</v>
+        <v>0.8945859205657132</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>620</v>
@@ -7644,19 +7644,19 @@
         <v>473441</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>456722</v>
+        <v>458683</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>486595</v>
+        <v>486081</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8663236548855348</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.835730429447867</v>
+        <v>0.839318489519573</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.89039461928758</v>
+        <v>0.889453098747047</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>952</v>
@@ -7665,19 +7665,19 @@
         <v>927537</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>899564</v>
+        <v>900797</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>951904</v>
+        <v>950908</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8611105053541792</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8351408296590577</v>
+        <v>0.8362850269569115</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8837322681331804</v>
+        <v>0.8828076807036742</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>75012</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>62002</v>
+        <v>61689</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>91144</v>
+        <v>89018</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2373840537464132</v>
+        <v>0.2373840537464131</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1962145441919152</v>
+        <v>0.195224006885851</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2884368131172599</v>
+        <v>0.281707618658655</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>111</v>
@@ -7790,19 +7790,19 @@
         <v>77793</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>64095</v>
+        <v>63952</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92048</v>
+        <v>91148</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2182860626082368</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1798500906047005</v>
+        <v>0.1794472629409745</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2582867253339922</v>
+        <v>0.2557601443437476</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>197</v>
@@ -7811,19 +7811,19 @@
         <v>152805</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>135109</v>
+        <v>132784</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>175679</v>
+        <v>174121</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2272614733107572</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2009436414999782</v>
+        <v>0.1974855210827224</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2612813403180086</v>
+        <v>0.2589640881394875</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>240981</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>224849</v>
+        <v>226975</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>253991</v>
+        <v>254304</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7626159462535868</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7115631868827401</v>
+        <v>0.7182923813413451</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8037854558080848</v>
+        <v>0.8047759931141489</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>425</v>
@@ -7861,19 +7861,19 @@
         <v>278588</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>264333</v>
+        <v>265233</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>292286</v>
+        <v>292429</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7817139373917632</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7417132746660078</v>
+        <v>0.7442398556562523</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8201499093952993</v>
+        <v>0.8205527370590255</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>699</v>
@@ -7882,19 +7882,19 @@
         <v>519570</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>496696</v>
+        <v>498254</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>537266</v>
+        <v>539591</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7727385266892429</v>
+        <v>0.7727385266892428</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.738718659681992</v>
+        <v>0.7410359118605132</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7990563585000218</v>
+        <v>0.8025144789172776</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>70775</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54343</v>
+        <v>55041</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>93278</v>
+        <v>92807</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1896728040566183</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1456358258437801</v>
+        <v>0.1475046904352963</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2499784064894323</v>
+        <v>0.2487157423489748</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>125</v>
@@ -8007,19 +8007,19 @@
         <v>88843</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>75262</v>
+        <v>73702</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>109039</v>
+        <v>107030</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2108904075319787</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1786514624841515</v>
+        <v>0.1749485704155869</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2588304607976476</v>
+        <v>0.2540613216106211</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>191</v>
@@ -8028,19 +8028,19 @@
         <v>159619</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>137856</v>
+        <v>136939</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>187635</v>
+        <v>186571</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2009243519717704</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1735301401744627</v>
+        <v>0.1723759226061784</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2361909091708455</v>
+        <v>0.2348518989564844</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>302370</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>279867</v>
+        <v>280338</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>318802</v>
+        <v>318104</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8103271959433818</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.750021593510568</v>
+        <v>0.7512842576510251</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8543641741562202</v>
+        <v>0.852495309564704</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>473</v>
@@ -8078,19 +8078,19 @@
         <v>332433</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>312237</v>
+        <v>314246</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>346014</v>
+        <v>347574</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7891095924680214</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7411695392023525</v>
+        <v>0.7459386783893789</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8213485375158486</v>
+        <v>0.8250514295844131</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>699</v>
@@ -8099,19 +8099,19 @@
         <v>634802</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>606786</v>
+        <v>607850</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>656565</v>
+        <v>657482</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7990756480282297</v>
+        <v>0.7990756480282296</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7638090908291546</v>
+        <v>0.7651481010435158</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8264698598255371</v>
+        <v>0.8276240773938218</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>12080</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6803</v>
+        <v>6792</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20632</v>
+        <v>20301</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0587377098552938</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03307913873556716</v>
+        <v>0.03302554543007735</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1003172350982201</v>
+        <v>0.09870887698094583</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -8224,19 +8224,19 @@
         <v>4642</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2269</v>
+        <v>2209</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8013</v>
+        <v>8532</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0202800524259901</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009913423439517751</v>
+        <v>0.009648308554681177</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03500324678345457</v>
+        <v>0.03727315805523863</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -8245,19 +8245,19 @@
         <v>16723</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10641</v>
+        <v>10825</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25569</v>
+        <v>24518</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03848001856643783</v>
+        <v>0.03848001856643781</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02448460655961263</v>
+        <v>0.02490955457447867</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05883642827881535</v>
+        <v>0.05641745625425826</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>193585</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>185033</v>
+        <v>185364</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>198862</v>
+        <v>198873</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9412622901447062</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8996827649017799</v>
+        <v>0.9012911230190543</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9669208612644329</v>
+        <v>0.9669744545699228</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>485</v>
@@ -8295,19 +8295,19 @@
         <v>224276</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>220905</v>
+        <v>220386</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>226649</v>
+        <v>226709</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9797199475740098</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9649967532165453</v>
+        <v>0.9627268419447618</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9900865765604822</v>
+        <v>0.9903516914453189</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>750</v>
@@ -8316,19 +8316,19 @@
         <v>417859</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>409013</v>
+        <v>410064</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>423941</v>
+        <v>423757</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9615199814335622</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9411635717211845</v>
+        <v>0.9435825437457418</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9755153934403873</v>
+        <v>0.9750904454255214</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>50814</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39683</v>
+        <v>39841</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>63202</v>
+        <v>63223</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1877076374983824</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1465898119420183</v>
+        <v>0.1471756795010969</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2334701835938566</v>
+        <v>0.233548970654756</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>95</v>
@@ -8441,19 +8441,19 @@
         <v>55086</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45610</v>
+        <v>44621</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>66359</v>
+        <v>65946</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2088556585117415</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1729292973258686</v>
+        <v>0.1691795321391248</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2515962825192015</v>
+        <v>0.2500331640399543</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>163</v>
@@ -8462,19 +8462,19 @@
         <v>105899</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>90249</v>
+        <v>90336</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>121681</v>
+        <v>123387</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1981440128952678</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1688607567442441</v>
+        <v>0.1690239789071012</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2276720473604589</v>
+        <v>0.2308636584387559</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>219893</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>207505</v>
+        <v>207484</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>231024</v>
+        <v>230866</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8122923625016176</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.766529816406143</v>
+        <v>0.7664510293452438</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8534101880579815</v>
+        <v>0.8528243204989026</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>365</v>
@@ -8512,19 +8512,19 @@
         <v>208664</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>197391</v>
+        <v>197804</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>218140</v>
+        <v>219129</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7911443414882585</v>
+        <v>0.7911443414882583</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7484037174807983</v>
+        <v>0.7499668359600455</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8270707026741313</v>
+        <v>0.8308204678608752</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>668</v>
@@ -8533,19 +8533,19 @@
         <v>428558</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>412776</v>
+        <v>411070</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>444208</v>
+        <v>444121</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8018559871047322</v>
+        <v>0.801855987104732</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7723279526395411</v>
+        <v>0.7691363415612444</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8311392432557562</v>
+        <v>0.8309760210928989</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>231614</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>203299</v>
+        <v>204412</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>261250</v>
+        <v>263330</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3228556412919021</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2833864692952193</v>
+        <v>0.2849374442010595</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3641667374969378</v>
+        <v>0.3670662621194333</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>329</v>
@@ -8658,19 +8658,19 @@
         <v>270967</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>245161</v>
+        <v>246485</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>296986</v>
+        <v>296565</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3513065508295067</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3178496418022517</v>
+        <v>0.3195660669844823</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3850405853390627</v>
+        <v>0.3844953058831793</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>522</v>
@@ -8679,19 +8679,19 @@
         <v>502580</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>465449</v>
+        <v>461832</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>539469</v>
+        <v>544282</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3375963263929074</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3126540099906974</v>
+        <v>0.3102248262526751</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3623752387591121</v>
+        <v>0.3656082259724556</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>485777</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>456141</v>
+        <v>454061</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>514092</v>
+        <v>512979</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6771443587080977</v>
+        <v>0.677144358708098</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6358332625030622</v>
+        <v>0.6329337378805665</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7166135307047806</v>
+        <v>0.7150625557989404</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>630</v>
@@ -8729,19 +8729,19 @@
         <v>500344</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>474325</v>
+        <v>474746</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>526150</v>
+        <v>524826</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6486934491704932</v>
+        <v>0.6486934491704933</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6149594146609368</v>
+        <v>0.6155046941168205</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6821503581977484</v>
+        <v>0.6804339330155177</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1034</v>
@@ -8750,19 +8750,19 @@
         <v>986122</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>949233</v>
+        <v>944420</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1023253</v>
+        <v>1026870</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6624036736070925</v>
+        <v>0.6624036736070926</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6376247612408878</v>
+        <v>0.6343917740275444</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6873459900093027</v>
+        <v>0.6897751737473249</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>126928</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>108153</v>
+        <v>105430</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>151415</v>
+        <v>149371</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1590429724339106</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.135517268442964</v>
+        <v>0.1321056403027483</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1897254256269923</v>
+        <v>0.18716503196659</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>214</v>
@@ -8875,19 +8875,19 @@
         <v>178654</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>156619</v>
+        <v>155893</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>201004</v>
+        <v>199508</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.214901092579815</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.188395701350318</v>
+        <v>0.1875227134628295</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2417858848799856</v>
+        <v>0.2399863029951902</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>337</v>
@@ -8896,19 +8896,19 @@
         <v>305582</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>275852</v>
+        <v>276158</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>338103</v>
+        <v>336632</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1875421234372336</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1692960709640014</v>
+        <v>0.1694843392109711</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2075009451439574</v>
+        <v>0.2065985733679343</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>671144</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>646657</v>
+        <v>648701</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>689919</v>
+        <v>692642</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8409570275660893</v>
+        <v>0.8409570275660894</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8102745743730072</v>
+        <v>0.8128349680334103</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8644827315570359</v>
+        <v>0.8678943596972517</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>848</v>
@@ -8946,19 +8946,19 @@
         <v>652677</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>630327</v>
+        <v>631823</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>674712</v>
+        <v>675438</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7850989074201851</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7582141151200147</v>
+        <v>0.7600136970048097</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8116042986496821</v>
+        <v>0.8124772865371708</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1487</v>
@@ -8967,19 +8967,19 @@
         <v>1323821</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1291300</v>
+        <v>1292771</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1353551</v>
+        <v>1353245</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8124578765627664</v>
+        <v>0.8124578765627662</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7924990548560427</v>
+        <v>0.7934014266320656</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8307039290359983</v>
+        <v>0.8305156607890288</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>654993</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>607380</v>
+        <v>606166</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>709245</v>
+        <v>707165</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.185525993023515</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1720396067193689</v>
+        <v>0.1716956382849639</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2008927390841384</v>
+        <v>0.2003036316083793</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1002</v>
@@ -9092,19 +9092,19 @@
         <v>761307</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>719517</v>
+        <v>720178</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>807557</v>
+        <v>811051</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2038019172690924</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1926147194750338</v>
+        <v>0.1927916764846581</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2161832289214521</v>
+        <v>0.2171185912273697</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1613</v>
@@ -9113,19 +9113,19 @@
         <v>1416300</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1347495</v>
+        <v>1346329</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1493304</v>
+        <v>1486056</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1949218412681347</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1854523332959428</v>
+        <v>0.1852919334136349</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2055197286570746</v>
+        <v>0.204522147321166</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2875473</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2821221</v>
+        <v>2823301</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2923086</v>
+        <v>2924300</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.814474006976485</v>
+        <v>0.8144740069764851</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7991072609158616</v>
+        <v>0.7996963683916208</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8279603932806313</v>
+        <v>0.8283043617150361</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4363</v>
@@ -9163,19 +9163,19 @@
         <v>2974216</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2927966</v>
+        <v>2924472</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3016006</v>
+        <v>3015345</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.7961980827309078</v>
+        <v>0.7961980827309075</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7838167710785476</v>
+        <v>0.7828814087726303</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8073852805249661</v>
+        <v>0.8072083235153419</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7126</v>
@@ -9184,19 +9184,19 @@
         <v>5849689</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5772685</v>
+        <v>5779933</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5918494</v>
+        <v>5919660</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8050781587318654</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7944802713429255</v>
+        <v>0.7954778526788339</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8145476667040572</v>
+        <v>0.814708066586365</v>
       </c>
     </row>
     <row r="30">
